--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Lane Stuff\CS297\CapstoneMasons\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CapstoneMasons\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D6D511-2F6D-4A4F-943F-BC56921176F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E49681-2751-43F2-8CCF-936576A5C195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="735" windowWidth="27150" windowHeight="17790" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Week 10" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="29">
   <si>
     <t>Week 1</t>
   </si>
@@ -130,6 +128,9 @@
   </si>
   <si>
     <t>Masons Supply</t>
+  </si>
+  <si>
+    <t>Dane Woods</t>
   </si>
 </sst>
 </file>
@@ -458,9 +459,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -468,7 +469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -485,7 +486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -511,7 +512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -541,14 +542,14 @@
       </c>
       <c r="H4">
         <f>'Week 1'!I$9</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <f>H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -582,10 +583,10 @@
       </c>
       <c r="I5">
         <f>H5+I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -619,10 +620,10 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -656,10 +657,10 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -693,10 +694,10 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -730,10 +731,10 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -767,10 +768,10 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -804,10 +805,10 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -841,10 +842,10 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -878,15 +879,15 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -905,9 +906,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -916,7 +917,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -937,7 +938,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -963,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -988,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1133,9 +1134,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1358,12 +1359,12 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1388,12 +1389,11 @@
         <f>Totals!F2</f>
         <v>Name 3</v>
       </c>
-      <c r="H2" t="str">
-        <f>Totals!H2</f>
-        <v>Name 4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1440,13 +1440,15 @@
         <f>F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
       <c r="I4">
         <f>H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1467,13 +1469,15 @@
         <f>F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
       <c r="I5">
         <f>H5+I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1492,13 +1496,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1520,10 +1526,10 @@
       <c r="H7" s="1"/>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1545,10 +1551,10 @@
       <c r="H8" s="1"/>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1570,10 +1576,10 @@
       <c r="H9" s="1"/>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1593,9 +1599,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1821,9 +1827,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2049,9 +2055,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2277,9 +2283,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2505,9 +2511,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2733,9 +2739,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2961,9 +2967,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CapstoneMasons\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Lane Stuff\CS297\CapstoneMasons\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E49681-2751-43F2-8CCF-936576A5C195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2B71F-4721-45F5-A6D3-318FDDD00489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="735" windowWidth="27150" windowHeight="17790" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Week 10" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -459,9 +461,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -469,7 +471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -486,7 +488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -512,17 +514,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <f>'Week 1'!C$9</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <f>B4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f>'Week 1'!E$9</f>
@@ -549,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -559,7 +561,7 @@
       </c>
       <c r="C5">
         <f>B5+C4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <f>'Week 2'!E$9</f>
@@ -586,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -596,7 +598,7 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:I13" si="0">B6+C5</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f>'Week 3'!E$9</f>
@@ -623,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -633,7 +635,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f>'Week 4'!E$9</f>
@@ -660,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -670,7 +672,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f>'Week 5'!E$9</f>
@@ -697,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -707,7 +709,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f>'Week 6'!E$9</f>
@@ -734,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -744,7 +746,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <f>'Week 7'!E$9</f>
@@ -771,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -781,7 +783,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <f>'Week 8'!E$9</f>
@@ -808,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -818,7 +820,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f>'Week 9'!E$9</f>
@@ -845,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -855,7 +857,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f>'Week 10'!E$9</f>
@@ -882,12 +884,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -906,9 +908,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -917,7 +919,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -938,7 +940,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -964,7 +966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -989,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1134,9 +1136,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1359,12 +1361,12 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1477,14 +1479,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
       <c r="C6">
         <f t="shared" ref="C6:I9" si="0">B6+C5</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6">
@@ -1504,14 +1508,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7">
@@ -1529,14 +1533,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8">
@@ -1554,14 +1558,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9">
@@ -1579,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1599,9 +1603,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1827,9 +1831,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1935,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2055,9 +2059,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2283,9 +2287,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2511,9 +2515,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2739,9 +2743,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2797,7 +2801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2967,9 +2971,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3050,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3150,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Lane Stuff\CS297\CapstoneMasons\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CS297\CapstoneMasons\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2B71F-4721-45F5-A6D3-318FDDD00489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDEF01-7C5B-4C62-973C-12DDA9586FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="735" windowWidth="27150" windowHeight="17790" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Week 10" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="32">
   <si>
     <t>Week 1</t>
   </si>
@@ -133,6 +131,15 @@
   </si>
   <si>
     <t>Dane Woods</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Jeff Walters</t>
+  </si>
+  <si>
+    <t>Gino Betetta</t>
   </si>
 </sst>
 </file>
@@ -461,9 +468,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -471,7 +478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -488,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -514,44 +521,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <f>'Week 1'!C$9</f>
-        <v>8</v>
+        <f>'Week 1'!C$10</f>
+        <v>11</v>
       </c>
       <c r="C4">
         <f>B4</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <f>'Week 1'!E$9</f>
-        <v>0</v>
+        <f>'Week 1'!E$10</f>
+        <v>13</v>
       </c>
       <c r="E4">
         <f>D4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <f>'Week 1'!G$9</f>
-        <v>0</v>
+        <f>'Week 1'!G$10</f>
+        <v>10</v>
       </c>
       <c r="G4">
         <f>F4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <f>'Week 1'!I$9</f>
-        <v>8</v>
+        <f>'Week 1'!I$10</f>
+        <v>14</v>
       </c>
       <c r="I4">
         <f>H4</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -561,7 +568,7 @@
       </c>
       <c r="C5">
         <f>B5+C4</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <f>'Week 2'!E$9</f>
@@ -569,7 +576,7 @@
       </c>
       <c r="E5">
         <f>D5+E4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <f>'Week 2'!G$9</f>
@@ -577,7 +584,7 @@
       </c>
       <c r="G5">
         <f>F5+G4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <f>'Week 2'!I$9</f>
@@ -585,10 +592,10 @@
       </c>
       <c r="I5">
         <f>H5+I4</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -598,7 +605,7 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:I13" si="0">B6+C5</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <f>'Week 3'!E$9</f>
@@ -606,7 +613,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <f>'Week 3'!G$9</f>
@@ -614,7 +621,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <f>'Week 3'!I$9</f>
@@ -622,10 +629,10 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -635,7 +642,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <f>'Week 4'!E$9</f>
@@ -643,7 +650,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <f>'Week 4'!G$9</f>
@@ -651,7 +658,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <f>'Week 4'!I$9</f>
@@ -659,10 +666,10 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -672,7 +679,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <f>'Week 5'!E$9</f>
@@ -680,7 +687,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <f>'Week 5'!G$9</f>
@@ -688,7 +695,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <f>'Week 5'!I$9</f>
@@ -696,10 +703,10 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -709,7 +716,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <f>'Week 6'!E$9</f>
@@ -717,7 +724,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <f>'Week 6'!G$9</f>
@@ -725,7 +732,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <f>'Week 6'!I$9</f>
@@ -733,10 +740,10 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -746,7 +753,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <f>'Week 7'!E$9</f>
@@ -754,7 +761,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <f>'Week 7'!G$9</f>
@@ -762,7 +769,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <f>'Week 7'!I$9</f>
@@ -770,10 +777,10 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -783,7 +790,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <f>'Week 8'!E$9</f>
@@ -791,7 +798,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <f>'Week 8'!G$9</f>
@@ -799,7 +806,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <f>'Week 8'!I$9</f>
@@ -807,10 +814,10 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -820,7 +827,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <f>'Week 9'!E$9</f>
@@ -828,7 +835,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <f>'Week 9'!G$9</f>
@@ -836,7 +843,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <f>'Week 9'!I$9</f>
@@ -844,10 +851,10 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -857,7 +864,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <f>'Week 10'!E$9</f>
@@ -865,7 +872,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <f>'Week 10'!G$9</f>
@@ -873,7 +880,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <f>'Week 10'!I$9</f>
@@ -881,15 +888,15 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -908,9 +915,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -919,7 +926,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -940,7 +947,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -966,7 +973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -991,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1136,9 +1143,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1319,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1344,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1358,15 +1365,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC11E001-DA2D-DB40-B076-5732B774C833}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1382,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1383,19 +1390,17 @@
         <f>Totals!B2</f>
         <v>Jacob Felten</v>
       </c>
-      <c r="D2" t="str">
-        <f>Totals!D2</f>
-        <v>Name 2</v>
-      </c>
-      <c r="F2" t="str">
-        <f>Totals!F2</f>
-        <v>Name 3</v>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1432,15 +1437,19 @@
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
       <c r="E4">
         <f>D4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
       <c r="G4">
         <f>F4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1450,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1461,15 +1470,19 @@
         <f>B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
       <c r="E5">
         <f>D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
       <c r="G5">
         <f>F5+G4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -1479,112 +1492,157 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <f>B6+C5</f>
         <v>8</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
+        <f>D6+E5</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F6+G5</f>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f>H6+I5</f>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>B7+C6</f>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>D7+E6</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>F7+G6</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>H7+I6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D8" s="1"/>
+        <f t="shared" ref="C8:I10" si="0">B8+C7</f>
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1603,9 +1661,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1672,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1635,7 +1693,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1661,7 +1719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1831,9 +1889,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1842,7 +1900,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1921,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1939,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2014,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2039,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2059,9 +2117,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2070,7 +2128,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2149,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2142,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2192,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2217,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2242,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2287,9 +2345,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2298,7 +2356,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2377,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2345,7 +2403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2370,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2445,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2470,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2495,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2515,9 +2573,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2526,7 +2584,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2547,7 +2605,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2573,7 +2631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2623,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2648,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2698,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2723,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2743,9 +2801,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2754,7 +2812,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2775,7 +2833,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2801,7 +2859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2826,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2851,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2876,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2901,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2951,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2971,9 +3029,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2982,7 +3040,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3003,7 +3061,7 @@
         <v>Name 4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -3029,7 +3087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3054,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3079,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3104,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3129,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3154,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3179,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CS297\CapstoneMasons\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDEF01-7C5B-4C62-973C-12DDA9586FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12993648-89CC-4BF9-A028-7120E677F392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="735" windowWidth="27150" windowHeight="17790" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="29">
   <si>
     <t>Week 1</t>
   </si>
@@ -74,15 +74,6 @@
   </si>
   <si>
     <t>Week 10</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Name 3</t>
-  </si>
-  <si>
-    <t>Name 4</t>
   </si>
   <si>
     <t>Total</t>
@@ -465,60 +456,60 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,12 +884,12 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +910,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -928,7 +919,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -936,46 +927,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -1000,7 +991,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -1025,7 +1016,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -1050,7 +1041,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -1075,7 +1066,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -1100,7 +1091,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -1125,7 +1116,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1138,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -1156,7 +1147,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -1164,46 +1155,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -1228,7 +1219,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -1253,7 +1244,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -1278,7 +1269,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -1303,7 +1294,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -1328,7 +1319,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -1353,7 +1344,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1368,14 +1359,14 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -1384,51 +1375,51 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
         <v>Jacob Felten</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1461,7 +1452,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1494,7 +1485,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1527,7 +1518,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1560,7 +1551,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -1589,14 +1580,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1616,14 +1609,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1643,7 +1638,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -1674,7 +1669,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -1682,46 +1677,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -1746,7 +1741,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -1771,7 +1766,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -1796,7 +1791,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -1821,7 +1816,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -1846,7 +1841,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -1871,7 +1866,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1888,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -1902,7 +1897,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -1910,46 +1905,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -1974,7 +1969,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -1999,7 +1994,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -2024,7 +2019,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -2049,7 +2044,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -2074,7 +2069,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -2099,7 +2094,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2116,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -2130,7 +2125,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -2138,46 +2133,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -2202,7 +2197,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -2227,7 +2222,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -2252,7 +2247,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -2277,7 +2272,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -2302,7 +2297,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -2327,7 +2322,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +2344,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -2358,7 +2353,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -2366,46 +2361,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -2430,7 +2425,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -2455,7 +2450,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -2480,7 +2475,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -2505,7 +2500,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -2530,7 +2525,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -2555,7 +2550,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2572,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -2586,7 +2581,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -2594,46 +2589,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -2658,7 +2653,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -2683,7 +2678,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -2708,7 +2703,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -2733,7 +2728,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -2758,7 +2753,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -2783,7 +2778,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -2814,7 +2809,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -2822,46 +2817,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -2886,7 +2881,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -2911,7 +2906,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -2936,7 +2931,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -2961,7 +2956,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -2986,7 +2981,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -3011,7 +3006,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3028,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
@@ -3042,7 +3037,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" t="str">
         <f>Totals!B2</f>
@@ -3050,46 +3045,46 @@
       </c>
       <c r="D2" t="str">
         <f>Totals!D2</f>
-        <v>Name 2</v>
+        <v>Jeff Walters</v>
       </c>
       <c r="F2" t="str">
         <f>Totals!F2</f>
-        <v>Name 3</v>
+        <v>Gino Betetta</v>
       </c>
       <c r="H2" t="str">
         <f>Totals!H2</f>
-        <v>Name 4</v>
+        <v>Dane Woods</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -3114,7 +3109,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -3139,7 +3134,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -3164,7 +3159,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -3189,7 +3184,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -3214,7 +3209,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -3239,7 +3234,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CS297\CapstoneMasons\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Lane Stuff\CS297\CapstoneMasons\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12993648-89CC-4BF9-A028-7120E677F392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E80D8-15FB-41D6-A39A-D8B901A7854B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="735" windowWidth="27150" windowHeight="17790" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Week 10" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -455,13 +457,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -469,7 +471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -486,7 +488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -512,7 +514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -549,7 +551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -586,7 +588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -623,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -660,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -697,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -734,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -771,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -808,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -845,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -882,12 +884,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -906,9 +908,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -917,7 +919,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -938,7 +940,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -964,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -989,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1134,9 +1136,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1358,13 +1360,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1549,11 +1551,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
       <c r="C8">
         <f t="shared" ref="C8:I10" si="0">B8+C7</f>
         <v>11</v>
@@ -1578,11 +1582,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1607,11 +1613,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1636,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1656,9 +1664,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1675,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1789,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1884,9 +1892,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1895,7 +1903,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1916,7 +1924,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2042,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2112,9 +2120,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2123,7 +2131,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2144,7 +2152,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2245,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2340,9 +2348,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2351,7 +2359,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2372,7 +2380,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2498,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2568,9 +2576,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2600,7 +2608,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2626,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2676,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2726,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2776,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2796,9 +2804,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2828,7 +2836,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2854,7 +2862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2879,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2929,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2954,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3024,9 +3032,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>Masons Supply</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>Dane Woods</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3207,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -67,28 +67,28 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Thursday</t>
+    <t>Week 3</t>
   </si>
   <si>
-    <t>Week 3</t>
+    <t>Thursday</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Saturday</t>
+    <t>Week 4</t>
   </si>
   <si>
-    <t>Week 4</t>
+    <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
+    <t>Week 5</t>
   </si>
   <si>
-    <t>Week 5</t>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
     <t>Week 6</t>
@@ -161,10 +161,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -440,16 +440,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -538,11 +538,11 @@
       </c>
       <c r="F5" s="1">
         <f>'Week 2'!G$10</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G13" si="3">F5+G4</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <f>'Week 2'!I$10</f>
@@ -555,7 +555,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$9</f>
@@ -579,7 +579,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
         <f>'Week 3'!I$9</f>
@@ -592,7 +592,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$9</f>
@@ -616,7 +616,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1">
         <f>'Week 4'!I$9</f>
@@ -629,7 +629,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <f>'Week 5'!C$9</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1">
         <f>'Week 5'!I$9</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$9</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$9</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$9</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$9</f>
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$9</f>
@@ -1869,7 +1869,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -2023,7 +2023,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -2074,7 +2074,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -3091,7 +3091,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -3245,7 +3245,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -3296,7 +3296,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4313,7 +4313,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4367,28 +4367,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4400,28 +4400,28 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4433,28 +4433,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4464,30 +4464,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4499,28 +4499,28 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4530,30 +4530,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4565,28 +4565,28 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4597,7 +4597,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5614,7 +5614,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
@@ -5682,14 +5682,14 @@
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5701,7 +5701,7 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
@@ -5713,14 +5713,14 @@
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5732,7 +5732,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
@@ -5744,14 +5744,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5761,9 +5761,9 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
@@ -5775,14 +5775,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5794,7 +5794,7 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
@@ -5806,12 +5806,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6">
+        <v>2.0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H8" s="6">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5821,9 +5823,9 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
@@ -5838,9 +5840,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H9" s="6">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5852,7 +5854,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
@@ -5867,9 +5869,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H10" s="6">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -5880,7 +5882,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -6897,7 +6899,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -7001,7 +7003,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -7051,7 +7053,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -7102,7 +7104,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -8119,7 +8121,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8223,7 +8225,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -8273,7 +8275,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -8324,7 +8326,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -9341,7 +9343,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9445,7 +9447,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -9495,7 +9497,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -9546,7 +9548,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10563,7 +10565,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -10667,7 +10669,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -10717,7 +10719,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -10768,7 +10770,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -11785,7 +11787,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11889,7 +11891,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -11939,7 +11941,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -11990,7 +11992,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -13007,7 +13009,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13111,7 +13113,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -13161,7 +13163,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -13212,7 +13214,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -19,14 +19,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mg5VumIJNojcgNU3yIaG7HFOyg3iQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mj/dugGGQACi7nBk0qSVB7Gr2hwvA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="28">
   <si>
     <t>Team Name:</t>
   </si>
@@ -34,16 +34,7 @@
     <t>Members:</t>
   </si>
   <si>
-    <t>Jacob Felten</t>
-  </si>
-  <si>
     <t>Jeff Walters</t>
-  </si>
-  <si>
-    <t>Gino Betetta</t>
-  </si>
-  <si>
-    <t>Dane Woods</t>
   </si>
   <si>
     <t>Hours</t>
@@ -52,13 +43,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Week 1</t>
+    <t>Dane Woods</t>
   </si>
   <si>
     <t>Monday</t>
-  </si>
-  <si>
-    <t>Week 2</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -67,16 +55,10 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
     <t>Friday</t>
-  </si>
-  <si>
-    <t>Week 4</t>
   </si>
   <si>
     <t>Saturday</t>
@@ -85,10 +67,28 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Week 5</t>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
+    <t>Jacob Felten</t>
+  </si>
+  <si>
+    <t>Gino Betetta</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week 6</t>
@@ -160,17 +160,17 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -434,54 +434,54 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -530,11 +530,11 @@
       </c>
       <c r="D5" s="1">
         <f>'Week 2'!E$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E13" si="2">D5+E4</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <f>'Week 2'!G$10</f>
@@ -555,10 +555,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
-        <f>'Week 3'!C$9</f>
+        <f>'Week 3'!C$10</f>
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -566,15 +566,15 @@
         <v>24</v>
       </c>
       <c r="D6" s="1">
-        <f>'Week 3'!E$9</f>
+        <f>'Week 3'!E$10</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
-        <f>'Week 3'!G$9</f>
+        <f>'Week 3'!G$10</f>
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -582,7 +582,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="1">
-        <f>'Week 3'!I$9</f>
+        <f>'Week 3'!I$10</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -592,7 +592,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$9</f>
@@ -608,7 +608,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <f>'Week 4'!G$9</f>
@@ -629,7 +629,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <f>'Week 5'!C$9</f>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <f>'Week 5'!G$9</f>
@@ -682,7 +682,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <f>'Week 6'!G$9</f>
@@ -719,7 +719,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
         <f>'Week 7'!G$9</f>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$9</f>
@@ -793,7 +793,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$9</f>
@@ -830,7 +830,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$9</f>
@@ -1869,7 +1869,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1897,50 +1897,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -1948,24 +1948,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -1973,24 +1973,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1998,24 +1998,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2023,24 +2023,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2048,24 +2048,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2074,7 +2074,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -3091,7 +3091,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3119,50 +3119,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -3170,24 +3170,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -3195,24 +3195,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3220,24 +3220,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3245,24 +3245,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3270,24 +3270,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3296,7 +3296,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4313,7 +4313,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4326,69 +4326,69 @@
         <f>Totals!B2</f>
         <v>Jacob Felten</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Totals!F2</f>
         <v>Gino Betetta</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4398,30 +4398,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4430,31 +4430,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4464,30 +4464,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4497,30 +4497,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4530,30 +4530,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4563,30 +4563,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4597,7 +4597,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5614,7 +5614,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5642,54 +5642,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5699,28 +5701,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="5">
+        <v>3.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5729,29 +5733,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5761,28 +5767,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="5">
+        <v>2.0</v>
+      </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5792,28 +5800,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5">
+        <v>0.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5823,26 +5833,28 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="5">
+        <v>0.0</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5852,26 +5864,28 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="5">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -5882,7 +5896,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -6899,7 +6913,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -6927,50 +6941,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -6978,136 +6992,152 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
+        <f t="shared" ref="G5:G10" si="1">F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <f t="shared" ref="I5:I10" si="2">H5+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
+      <c r="H6" s="6"/>
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
+        <f>B7+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1">
+        <f>D7+E5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
+      <c r="H7" s="6"/>
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
+        <f t="shared" ref="C8:C10" si="3">B8+C7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E10" si="4">D8+E7</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1">
+      <c r="H8" s="6"/>
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1">
+      <c r="H9" s="6"/>
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1">
+      <c r="D10" s="6"/>
+      <c r="E10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -8096,6 +8126,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -8121,7 +8152,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8149,50 +8180,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -8200,24 +8231,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -8225,24 +8256,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8250,24 +8281,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8275,24 +8306,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8300,24 +8331,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8326,7 +8357,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -9343,7 +9374,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9371,50 +9402,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -9422,24 +9453,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -9447,24 +9478,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9472,24 +9503,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9497,24 +9528,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9522,24 +9553,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9548,7 +9579,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10565,7 +10596,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -10593,50 +10624,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -10644,24 +10675,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -10669,24 +10700,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10694,24 +10725,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10719,24 +10750,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10744,24 +10775,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10770,7 +10801,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -11787,7 +11818,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11815,50 +11846,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -11866,24 +11897,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -11891,24 +11922,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11916,24 +11947,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11941,24 +11972,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11966,24 +11997,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11992,7 +12023,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -13009,7 +13040,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13037,50 +13068,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -13088,24 +13119,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -13113,24 +13144,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13138,24 +13169,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13163,24 +13194,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13188,24 +13219,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13214,7 +13245,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -34,7 +34,16 @@
     <t>Members:</t>
   </si>
   <si>
+    <t>Jacob Felten</t>
+  </si>
+  <si>
     <t>Jeff Walters</t>
+  </si>
+  <si>
+    <t>Gino Betetta</t>
+  </si>
+  <si>
+    <t>Dane Woods</t>
   </si>
   <si>
     <t>Hours</t>
@@ -43,10 +52,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Dane Woods</t>
+    <t>Week 1</t>
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -56,6 +68,9 @@
   </si>
   <si>
     <t>Thursday</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Friday</t>
@@ -68,21 +83,6 @@
   </si>
   <si>
     <t>Enter the total hours worked both in class and outside of class</t>
-  </si>
-  <si>
-    <t>Jacob Felten</t>
-  </si>
-  <si>
-    <t>Gino Betetta</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
   </si>
   <si>
     <t>Week 4</t>
@@ -160,17 +160,17 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -434,54 +434,54 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -555,39 +555,39 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <f>'Week 3'!E$10</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
         <f>'Week 3'!G$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1">
         <f>'Week 3'!I$10</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -600,7 +600,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <f>'Week 4'!E$9</f>
@@ -608,7 +608,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
         <f>'Week 4'!G$9</f>
@@ -616,7 +616,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1">
         <f>'Week 4'!I$9</f>
@@ -624,7 +624,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -637,7 +637,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <f>'Week 5'!E$9</f>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1">
         <f>'Week 5'!G$9</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1">
         <f>'Week 5'!I$9</f>
@@ -661,7 +661,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <f>'Week 6'!E$9</f>
@@ -682,7 +682,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <f>'Week 6'!G$9</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$9</f>
@@ -698,7 +698,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -711,7 +711,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$9</f>
@@ -719,7 +719,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
         <f>'Week 7'!G$9</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$9</f>
@@ -735,7 +735,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -748,7 +748,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$9</f>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$9</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$9</f>
@@ -772,7 +772,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -785,7 +785,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$9</f>
@@ -793,7 +793,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$9</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$9</f>
@@ -809,7 +809,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -822,7 +822,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$9</f>
@@ -830,7 +830,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$9</f>
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$9</f>
@@ -846,7 +846,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1869,7 +1869,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1897,50 +1897,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -1948,24 +1948,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -1973,24 +1973,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1998,24 +1998,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2023,24 +2023,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2048,24 +2048,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2074,7 +2074,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -3091,7 +3091,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3119,50 +3119,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -3170,24 +3170,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -3195,24 +3195,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3220,24 +3220,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3245,24 +3245,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3270,24 +3270,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3296,7 +3296,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4313,7 +4313,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4326,69 +4326,69 @@
         <f>Totals!B2</f>
         <v>Jacob Felten</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Totals!F2</f>
         <v>Gino Betetta</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4398,30 +4398,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4430,31 +4430,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4464,30 +4464,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4497,30 +4497,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4530,30 +4530,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4563,30 +4563,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4597,7 +4597,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5614,7 +5614,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5642,56 +5642,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5701,30 +5701,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5733,31 +5733,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5767,30 +5767,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5800,30 +5800,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5833,28 +5833,28 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5864,28 +5864,28 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -5896,7 +5896,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -6913,7 +6913,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -6941,201 +6941,257 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1" t="str">
-        <f>B4</f>
-        <v/>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.0</v>
+      </c>
       <c r="C5" s="1">
-        <f>B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.0</v>
+      </c>
       <c r="E5" s="1">
-        <f>D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="6"/>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G10" si="1">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6"/>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I10" si="2">H5+I4</f>
-        <v>0</v>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="3">
+        <v>5.0</v>
+      </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="1">
-        <f>B7+C5</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1">
-        <f>D7+E5</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="3">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:C10" si="3">B8+C7</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1">
-        <f t="shared" ref="E8:E10" si="4">D8+E7</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8152,7 +8208,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8180,50 +8236,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -8231,24 +8287,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -8256,24 +8312,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8281,24 +8337,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8306,24 +8362,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8331,24 +8387,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8357,7 +8413,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -9374,7 +9430,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9402,50 +9458,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -9453,24 +9509,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -9478,24 +9534,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9503,24 +9559,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9528,24 +9584,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9553,24 +9609,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9579,7 +9635,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10596,7 +10652,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -10624,50 +10680,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -10675,24 +10731,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -10700,24 +10756,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10725,24 +10781,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10750,24 +10806,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10775,24 +10831,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10801,7 +10857,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -11818,7 +11874,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11846,50 +11902,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -11897,24 +11953,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -11922,24 +11978,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11947,24 +12003,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11972,24 +12028,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11997,24 +12053,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12023,7 +12079,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -13040,7 +13096,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13068,50 +13124,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -13119,24 +13175,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -13144,24 +13200,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13169,24 +13225,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13194,24 +13250,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13219,24 +13275,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13245,7 +13301,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -34,7 +34,16 @@
     <t>Members:</t>
   </si>
   <si>
+    <t>Jacob Felten</t>
+  </si>
+  <si>
     <t>Jeff Walters</t>
+  </si>
+  <si>
+    <t>Gino Betetta</t>
+  </si>
+  <si>
+    <t>Dane Woods</t>
   </si>
   <si>
     <t>Hours</t>
@@ -43,10 +52,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Dane Woods</t>
+    <t>Week 1</t>
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -61,6 +73,9 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Saturday</t>
   </si>
   <si>
@@ -68,21 +83,6 @@
   </si>
   <si>
     <t>Enter the total hours worked both in class and outside of class</t>
-  </si>
-  <si>
-    <t>Jacob Felten</t>
-  </si>
-  <si>
-    <t>Gino Betetta</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
   </si>
   <si>
     <t>Week 4</t>
@@ -160,17 +160,17 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -434,54 +434,54 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -538,11 +538,11 @@
       </c>
       <c r="F5" s="1">
         <f>'Week 2'!G$10</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G13" si="3">F5+G4</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <f>'Week 2'!I$10</f>
@@ -555,39 +555,39 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <f>'Week 3'!E$10</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
         <f>'Week 3'!G$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1">
         <f>'Week 3'!I$10</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -600,7 +600,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <f>'Week 4'!E$9</f>
@@ -608,7 +608,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
         <f>'Week 4'!G$9</f>
@@ -616,7 +616,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
         <f>'Week 4'!I$9</f>
@@ -624,7 +624,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -637,7 +637,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <f>'Week 5'!E$9</f>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1">
         <f>'Week 5'!G$9</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1">
         <f>'Week 5'!I$9</f>
@@ -661,7 +661,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <f>'Week 6'!E$9</f>
@@ -682,7 +682,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <f>'Week 6'!G$9</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$9</f>
@@ -698,7 +698,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -711,7 +711,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$9</f>
@@ -719,7 +719,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
         <f>'Week 7'!G$9</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$9</f>
@@ -735,7 +735,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -748,7 +748,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$9</f>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$9</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$9</f>
@@ -772,7 +772,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -785,7 +785,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$9</f>
@@ -793,7 +793,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$9</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$9</f>
@@ -809,7 +809,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -822,7 +822,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$9</f>
@@ -830,7 +830,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$9</f>
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$9</f>
@@ -846,7 +846,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1869,7 +1869,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1897,50 +1897,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -1948,24 +1948,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -1973,24 +1973,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1998,24 +1998,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2023,24 +2023,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2048,24 +2048,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2074,7 +2074,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -3091,7 +3091,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3119,50 +3119,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -3170,24 +3170,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -3195,24 +3195,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3220,24 +3220,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3245,24 +3245,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3270,24 +3270,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3296,7 +3296,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4313,7 +4313,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4326,69 +4326,69 @@
         <f>Totals!B2</f>
         <v>Jacob Felten</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Totals!F2</f>
         <v>Gino Betetta</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4398,30 +4398,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4430,31 +4430,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4464,30 +4464,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4497,30 +4497,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4530,30 +4530,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4563,30 +4563,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4597,7 +4597,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5614,7 +5614,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5642,56 +5642,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5701,30 +5701,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5733,31 +5733,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5767,30 +5767,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5800,30 +5800,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5833,28 +5833,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>1.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="H9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5864,28 +5866,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>0.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -5896,7 +5900,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -6913,7 +6917,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -6941,201 +6945,257 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1" t="str">
-        <f>B4</f>
-        <v/>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.0</v>
+      </c>
       <c r="C5" s="1">
-        <f>B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="E5" s="1">
-        <f>D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="6"/>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G10" si="1">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6"/>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I10" si="2">H5+I4</f>
-        <v>0</v>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="3">
+        <v>5.0</v>
+      </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="1">
-        <f>B7+C5</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1">
-        <f>D7+E5</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="3">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:C10" si="3">B8+C7</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1">
-        <f t="shared" ref="E8:E10" si="4">D8+E7</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8152,7 +8212,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8180,50 +8240,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -8231,24 +8291,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -8256,24 +8316,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8281,24 +8341,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8306,24 +8366,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8331,24 +8391,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8357,7 +8417,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -9374,7 +9434,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9402,50 +9462,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -9453,24 +9513,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -9478,24 +9538,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9503,24 +9563,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9528,24 +9588,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9553,24 +9613,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9579,7 +9639,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10596,7 +10656,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -10624,50 +10684,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -10675,24 +10735,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -10700,24 +10760,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10725,24 +10785,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10750,24 +10810,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10775,24 +10835,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10801,7 +10861,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -11818,7 +11878,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11846,50 +11906,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -11897,24 +11957,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -11922,24 +11982,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11947,24 +12007,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11972,24 +12032,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11997,24 +12057,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12023,7 +12083,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -13040,7 +13100,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13068,50 +13128,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -13119,24 +13179,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -13144,24 +13204,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13169,24 +13229,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13194,24 +13254,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13219,24 +13279,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13245,7 +13305,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -70,10 +70,10 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Week 3</t>
+    <t>Friday</t>
   </si>
   <si>
-    <t>Friday</t>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Saturday</t>
@@ -538,11 +538,11 @@
       </c>
       <c r="F5" s="1">
         <f>'Week 2'!G$10</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G13" si="3">F5+G4</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <f>'Week 2'!I$10</f>
@@ -555,7 +555,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -579,7 +579,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1">
         <f>'Week 3'!I$10</f>
@@ -616,7 +616,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
         <f>'Week 4'!I$9</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1">
         <f>'Week 5'!I$9</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$9</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$9</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$9</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$9</f>
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$9</f>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -3220,7 +3220,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -4497,7 +4497,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -5849,10 +5849,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6">
+        <v>1.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3">
         <v>0.0</v>
@@ -5880,10 +5882,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6">
+        <v>0.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3">
         <v>0.0</v>
@@ -6976,7 +6980,7 @@
         <f>B4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
@@ -7009,7 +7013,7 @@
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
@@ -7042,7 +7046,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>3.0</v>
       </c>
       <c r="E6" s="1">
@@ -7075,7 +7079,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
@@ -7099,7 +7103,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>1.0</v>
@@ -7108,7 +7112,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
@@ -7139,7 +7143,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
@@ -7170,7 +7174,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
@@ -8337,7 +8341,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -9559,7 +9563,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -10781,7 +10785,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -12003,7 +12007,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -13225,7 +13229,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -19,14 +19,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mj/dugGGQACi7nBk0qSVB7Gr2hwvA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mi0zQiQPthFgAv34p1QhyDZEMbSYg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="28">
   <si>
     <t>Team Name:</t>
   </si>
@@ -34,13 +34,10 @@
     <t>Members:</t>
   </si>
   <si>
-    <t>Jacob Felten</t>
-  </si>
-  <si>
     <t>Jeff Walters</t>
   </si>
   <si>
-    <t>Gino Betetta</t>
+    <t>Jacob Felten</t>
   </si>
   <si>
     <t>Dane Woods</t>
@@ -52,16 +49,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Week 1</t>
+    <t>Gino Betetta</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>Week 2</t>
+    <t>Week 1</t>
   </si>
   <si>
     <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -82,10 +82,10 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
+    <t>Week 4</t>
   </si>
   <si>
-    <t>Week 4</t>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
     <t>Week 5</t>
@@ -160,12 +160,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -434,54 +434,54 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -538,11 +538,11 @@
       </c>
       <c r="F5" s="1">
         <f>'Week 2'!G$10</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G13" si="3">F5+G4</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <f>'Week 2'!I$10</f>
@@ -575,11 +575,11 @@
       </c>
       <c r="F6" s="1">
         <f>'Week 3'!G$10</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1">
         <f>'Week 3'!I$10</f>
@@ -592,10 +592,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
-        <f>'Week 4'!C$9</f>
+        <f>'Week 4'!C$10</f>
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -603,7 +603,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="1">
-        <f>'Week 4'!E$9</f>
+        <f>'Week 4'!E$10</f>
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -611,20 +611,20 @@
         <v>39</v>
       </c>
       <c r="F7" s="1">
-        <f>'Week 4'!G$9</f>
-        <v>0</v>
+        <f>'Week 4'!G$10</f>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1">
-        <f>'Week 4'!I$9</f>
-        <v>0</v>
+        <f>'Week 4'!I$10</f>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1">
         <f>'Week 5'!I$9</f>
@@ -661,7 +661,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -690,7 +690,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$9</f>
@@ -698,7 +698,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$9</f>
@@ -735,7 +735,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -764,7 +764,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$9</f>
@@ -772,7 +772,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -801,7 +801,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$9</f>
@@ -809,7 +809,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$9</f>
@@ -846,7 +846,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1869,7 +1869,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1897,50 +1897,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -1948,24 +1948,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -1975,22 +1975,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2000,22 +2000,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2025,22 +2025,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2050,22 +2050,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2074,7 +2074,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -3091,7 +3091,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3119,50 +3119,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -3170,24 +3170,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -3197,22 +3197,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3222,22 +3222,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3247,22 +3247,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3272,22 +3272,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3296,7 +3296,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4313,7 +4313,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4326,69 +4326,69 @@
         <f>Totals!B2</f>
         <v>Jacob Felten</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Totals!F2</f>
         <v>Gino Betetta</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4398,30 +4398,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4430,31 +4430,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4466,28 +4466,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4499,28 +4499,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4532,28 +4532,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4565,28 +4565,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4597,7 +4597,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5614,7 +5614,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5642,56 +5642,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5701,30 +5701,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5733,31 +5733,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5769,28 +5769,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5802,28 +5802,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5835,14 +5835,14 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
@@ -5850,13 +5850,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="3">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5868,28 +5868,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="H10" s="3">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -5900,7 +5900,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -6917,7 +6917,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -6945,56 +6945,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>6.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -7004,30 +7004,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -7036,31 +7036,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>3.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>4.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>5.0</v>
       </c>
       <c r="I6" s="1">
@@ -7072,28 +7072,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -7105,26 +7105,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6">
+        <v>2.0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -7136,26 +7138,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6">
+        <v>1.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -7167,26 +7171,30 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6">
+        <v>2.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.0</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7195,7 +7203,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8212,7 +8220,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8240,187 +8248,215 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
+      <c r="F4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
-        <v>0</v>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -9409,6 +9445,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9434,7 +9471,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9462,50 +9499,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -9513,24 +9550,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -9540,22 +9577,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9565,22 +9602,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9590,22 +9627,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9615,22 +9652,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9639,7 +9676,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10656,7 +10693,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -10684,50 +10721,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -10735,24 +10772,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -10762,22 +10799,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10787,22 +10824,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10812,22 +10849,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10837,22 +10874,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10861,7 +10898,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -11878,7 +11915,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11906,50 +11943,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -11957,24 +11994,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -11984,22 +12021,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12009,22 +12046,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12034,22 +12071,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12059,22 +12096,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12083,7 +12120,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -13100,7 +13137,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="2" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13128,50 +13165,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -13179,24 +13216,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -13206,22 +13243,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13231,22 +13268,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13256,22 +13293,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13281,22 +13318,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13305,7 +13342,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -34,10 +34,13 @@
     <t>Members:</t>
   </si>
   <si>
+    <t>Jacob Felten</t>
+  </si>
+  <si>
     <t>Jeff Walters</t>
   </si>
   <si>
-    <t>Jacob Felten</t>
+    <t>Gino Betetta</t>
   </si>
   <si>
     <t>Dane Woods</t>
@@ -49,13 +52,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Gino Betetta</t>
+    <t>Week 1</t>
   </si>
   <si>
     <t>Monday</t>
-  </si>
-  <si>
-    <t>Week 1</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -73,19 +73,19 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Week 4</t>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week 5</t>
@@ -160,12 +160,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -434,54 +434,54 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
@@ -555,7 +555,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -592,15 +592,15 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$10</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
         <f>'Week 4'!E$10</f>
@@ -612,19 +612,19 @@
       </c>
       <c r="F7" s="1">
         <f>'Week 4'!G$10</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1">
         <f>'Week 4'!I$10</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -637,7 +637,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <f>'Week 5'!E$9</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1">
         <f>'Week 5'!I$9</f>
@@ -661,7 +661,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <f>'Week 6'!E$9</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$9</f>
@@ -698,7 +698,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -711,7 +711,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$9</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$9</f>
@@ -735,7 +735,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -748,7 +748,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$9</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$9</f>
@@ -772,7 +772,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -785,7 +785,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$9</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$9</f>
@@ -809,7 +809,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -822,7 +822,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$9</f>
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$9</f>
@@ -846,7 +846,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1869,7 +1869,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1897,50 +1897,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -1950,22 +1950,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -1975,22 +1975,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2000,22 +2000,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2023,24 +2023,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2048,24 +2048,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2074,7 +2074,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -3091,7 +3091,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3119,50 +3119,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -3172,22 +3172,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -3197,22 +3197,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3222,22 +3222,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3245,24 +3245,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3270,24 +3270,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3296,7 +3296,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4313,7 +4313,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4326,69 +4326,69 @@
         <f>Totals!B2</f>
         <v>Jacob Felten</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Totals!F2</f>
         <v>Gino Betetta</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4400,28 +4400,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4430,31 +4430,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4466,28 +4466,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4499,28 +4499,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4530,30 +4530,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4563,30 +4563,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4597,7 +4597,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5614,7 +5614,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5642,56 +5642,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5703,28 +5703,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5733,31 +5733,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5769,28 +5769,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5802,28 +5802,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5833,30 +5833,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5866,30 +5866,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -5900,7 +5900,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -6917,7 +6917,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -6945,56 +6945,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>6.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -7006,28 +7006,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>4</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>4</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -7036,31 +7036,31 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>3.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>4.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>5.0</v>
       </c>
       <c r="I6" s="1">
@@ -7072,28 +7072,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -7105,28 +7105,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -7136,30 +7136,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>1.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -7169,30 +7169,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>2.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -7203,7 +7203,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8220,7 +8220,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8248,52 +8248,54 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="str">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="1">
         <f>B4</f>
-        <v/>
-      </c>
-      <c r="D4" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -8305,156 +8307,162 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>6.0</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6">
+        <v>8.0</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
-        <v>3</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.0</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9471,7 +9479,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9499,50 +9507,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -9552,22 +9560,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -9577,22 +9585,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9602,22 +9610,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9625,24 +9633,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9650,24 +9658,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9676,7 +9684,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10693,7 +10701,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -10721,50 +10729,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -10774,22 +10782,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -10799,22 +10807,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10824,22 +10832,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10847,24 +10855,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10872,24 +10880,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10898,7 +10906,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -11915,7 +11923,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11943,50 +11951,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -11996,22 +12004,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -12021,22 +12029,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12046,22 +12054,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12069,24 +12077,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12094,24 +12102,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12120,7 +12128,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -13137,7 +13145,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13165,50 +13173,50 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -13218,22 +13226,22 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C9" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E9" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="4">H5+I4</f>
         <v>0</v>
@@ -13243,22 +13251,22 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13268,22 +13276,22 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13291,24 +13299,24 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13316,24 +13324,24 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13342,7 +13350,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -58,10 +58,10 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>Week 2</t>
   </si>
   <si>
-    <t>Week 2</t>
+    <t>Tuesday</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -518,7 +518,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -567,11 +567,11 @@
       </c>
       <c r="D6" s="1">
         <f>'Week 3'!E$10</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1">
         <f>'Week 3'!G$10</f>
@@ -596,19 +596,19 @@
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$10</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1">
         <f>'Week 4'!E$10</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1">
         <f>'Week 4'!G$10</f>
@@ -620,11 +620,11 @@
       </c>
       <c r="H7" s="1">
         <f>'Week 4'!I$10</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -637,7 +637,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1">
         <f>'Week 5'!E$9</f>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <f>'Week 5'!G$9</f>
@@ -661,7 +661,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1">
         <f>'Week 6'!E$9</f>
@@ -682,7 +682,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1">
         <f>'Week 6'!G$9</f>
@@ -698,7 +698,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -711,7 +711,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$9</f>
@@ -719,7 +719,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1">
         <f>'Week 7'!G$9</f>
@@ -735,7 +735,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -748,7 +748,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$9</f>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$9</f>
@@ -772,7 +772,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -785,7 +785,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$9</f>
@@ -793,7 +793,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$9</f>
@@ -809,7 +809,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -822,7 +822,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$9</f>
@@ -830,7 +830,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$9</f>
@@ -846,7 +846,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -3170,7 +3170,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -4398,7 +4398,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -7179,11 +7179,11 @@
         <v>16</v>
       </c>
       <c r="D10" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3">
         <v>2.0</v>
@@ -8283,10 +8283,12 @@
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>3.0</v>
@@ -8305,7 +8307,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>6.0</v>
@@ -8314,12 +8316,14 @@
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3">
+        <v>4.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
         <v>8.0</v>
       </c>
       <c r="G5" s="1">
@@ -8327,136 +8331,166 @@
         <v>11</v>
       </c>
       <c r="H5" s="3">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3">
+        <v>3.0</v>
+      </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.0</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I6" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6">
+        <v>2.0</v>
+      </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0</v>
+      </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6">
+        <v>0.0</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="6">
+        <v>0.0</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.0</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6">
+        <v>0.0</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.0</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -9558,7 +9592,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -10780,7 +10814,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -12002,7 +12036,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -13224,7 +13258,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -70,22 +70,22 @@
     <t>Thursday</t>
   </si>
   <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
+    <t>Week 4</t>
+  </si>
+  <si>
     <t>Sunday</t>
   </si>
   <si>
     <t>Enter the total hours worked both in class and outside of class</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
   </si>
   <si>
     <t>Week 5</t>
@@ -555,7 +555,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -592,7 +592,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$10</f>
@@ -612,11 +612,11 @@
       </c>
       <c r="F7" s="1">
         <f>'Week 4'!G$10</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1">
         <f>'Week 4'!I$10</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1">
         <f>'Week 5'!I$9</f>
@@ -690,7 +690,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$9</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$9</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$9</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$9</f>
@@ -838,7 +838,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$9</f>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -2023,7 +2023,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -2048,7 +2048,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -2074,7 +2074,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -3245,7 +3245,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -3270,7 +3270,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -3296,7 +3296,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>0.0</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -4597,7 +4597,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>0.0</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -5900,7 +5900,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>1.0</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>0.0</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -7203,7 +7203,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8356,10 +8356,12 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6">
+        <v>3.0</v>
+      </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3">
         <v>2.0</v>
@@ -8373,7 +8375,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
@@ -8387,10 +8389,12 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3">
         <v>2.0</v>
@@ -8402,9 +8406,9 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
@@ -8418,10 +8422,12 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6">
+        <v>3.0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3">
         <v>0.0</v>
@@ -8433,9 +8439,9 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
@@ -8449,10 +8455,12 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6">
+        <v>0.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3">
         <v>0.0</v>
@@ -8464,9 +8472,9 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
@@ -8480,10 +8488,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6">
+        <v>0.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3">
         <v>2.0</v>
@@ -8496,7 +8506,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9642,7 +9652,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -9667,7 +9677,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -9692,7 +9702,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -9718,7 +9728,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10864,7 +10874,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -10889,7 +10899,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -10914,7 +10924,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -10940,7 +10950,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -12086,7 +12096,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -12111,7 +12121,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -12136,7 +12146,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -12162,7 +12172,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -13308,7 +13318,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -13333,7 +13343,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -13358,7 +13368,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -13384,7 +13394,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -19,14 +19,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mi0zQiQPthFgAv34p1QhyDZEMbSYg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mg0tBBkqvYe+cTFRg/O2Zgi0H3d4Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="28">
   <si>
     <t>Team Name:</t>
   </si>
@@ -58,10 +58,10 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Week 2</t>
+    <t>Tuesday</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -70,22 +70,22 @@
     <t>Thursday</t>
   </si>
   <si>
+    <t>Friday</t>
+  </si>
+  <si>
     <t>Week 3</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>Saturday</t>
-  </si>
-  <si>
-    <t>Week 4</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
     <t>Enter the total hours worked both in class and outside of class</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week 5</t>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -170,6 +170,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +530,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -555,7 +567,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -592,7 +604,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$10</f>
@@ -632,36 +644,36 @@
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <f>'Week 5'!C$9</f>
-        <v>0</v>
+        <f>'Week 5'!C$10</f>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1">
-        <f>'Week 5'!E$9</f>
-        <v>0</v>
+        <f>'Week 5'!E$10</f>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1">
-        <f>'Week 5'!G$9</f>
-        <v>0</v>
+        <f>'Week 5'!G$10</f>
+        <v>22</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1">
-        <f>'Week 5'!I$9</f>
-        <v>0</v>
+        <f>'Week 5'!I$10</f>
+        <v>8</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -669,36 +681,36 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <f>'Week 6'!C$9</f>
-        <v>0</v>
+        <f>'Week 6'!C$10</f>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1">
-        <f>'Week 6'!E$9</f>
+        <f>'Week 6'!E$10</f>
         <v>0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1">
-        <f>'Week 6'!G$9</f>
+        <f>'Week 6'!G$10</f>
         <v>0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H9" s="1">
-        <f>'Week 6'!I$9</f>
+        <f>'Week 6'!I$10</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -706,36 +718,36 @@
         <v>22</v>
       </c>
       <c r="B10" s="1">
-        <f>'Week 7'!C$9</f>
+        <f>'Week 7'!C$10</f>
         <v>0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1">
-        <f>'Week 7'!E$9</f>
+        <f>'Week 7'!E$10</f>
         <v>0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1">
-        <f>'Week 7'!G$9</f>
+        <f>'Week 7'!G$10</f>
         <v>0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1">
-        <f>'Week 7'!I$9</f>
+        <f>'Week 7'!I$10</f>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -743,36 +755,36 @@
         <v>23</v>
       </c>
       <c r="B11" s="1">
-        <f>'Week 8'!C$9</f>
+        <f>'Week 8'!C$10</f>
         <v>0</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1">
-        <f>'Week 8'!E$9</f>
+        <f>'Week 8'!E$10</f>
         <v>0</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1">
-        <f>'Week 8'!G$9</f>
+        <f>'Week 8'!G$10</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1">
-        <f>'Week 8'!I$9</f>
+        <f>'Week 8'!I$10</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -780,36 +792,36 @@
         <v>24</v>
       </c>
       <c r="B12" s="1">
-        <f>'Week 9'!C$9</f>
+        <f>'Week 9'!C$10</f>
         <v>0</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1">
-        <f>'Week 9'!E$9</f>
+        <f>'Week 9'!E$10</f>
         <v>0</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1">
-        <f>'Week 9'!G$9</f>
+        <f>'Week 9'!G$10</f>
         <v>0</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1">
-        <f>'Week 9'!I$9</f>
+        <f>'Week 9'!I$10</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -817,36 +829,36 @@
         <v>25</v>
       </c>
       <c r="B13" s="1">
-        <f>'Week 10'!C$9</f>
+        <f>'Week 10'!C$10</f>
         <v>0</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
-        <f>'Week 10'!E$9</f>
+        <f>'Week 10'!E$10</f>
         <v>0</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1">
-        <f>'Week 10'!G$9</f>
+        <f>'Week 10'!G$10</f>
         <v>0</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1">
-        <f>'Week 10'!I$9</f>
+        <f>'Week 10'!I$10</f>
         <v>0</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1948,82 +1960,116 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1">
+      <c r="H7" s="10"/>
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -2048,7 +2094,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -2071,13 +2117,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -3066,6 +3136,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3170,82 +3241,116 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1">
+      <c r="H7" s="10"/>
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -3270,7 +3375,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -3293,13 +3398,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -4288,6 +4417,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4398,7 +4528,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -4497,7 +4627,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -4563,7 +4693,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -4597,7 +4727,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5701,7 +5831,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -5800,7 +5930,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -5866,7 +5996,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -5900,7 +6030,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -7004,7 +7134,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>4.0</v>
@@ -7103,7 +7233,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>1.0</v>
@@ -7169,7 +7299,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -7203,7 +7333,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8307,7 +8437,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>6.0</v>
@@ -8356,7 +8486,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
@@ -8389,7 +8519,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
@@ -8406,7 +8536,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -8422,7 +8552,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>3.0</v>
       </c>
       <c r="G8" s="1">
@@ -8455,7 +8585,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
@@ -8472,7 +8602,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -8488,7 +8618,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
@@ -8506,7 +8636,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9579,10 +9709,1313 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="str">
+      <c r="B4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="1">
         <f>B4</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F4</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="10.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>Totals!B1</f>
         <v/>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>Totals!B2</f>
+        <v>Jacob Felten</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>Totals!D2</f>
+        <v>Jeff Walters</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>Totals!F2</f>
+        <v>Gino Betetta</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>Totals!H2</f>
+        <v>Dane Woods</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
@@ -9594,7 +11027,7 @@
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -9602,87 +11035,121 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
-        <v>0</v>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1">
+      <c r="H7" s="10"/>
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
@@ -9702,12 +11169,12 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
@@ -9725,13 +11192,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -10720,6 +12211,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -10728,7 +12220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -10824,82 +12316,116 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1">
+      <c r="H7" s="10"/>
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -10924,7 +12450,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -10947,13 +12473,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -11942,6 +13492,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -11950,7 +13501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -12046,82 +13597,116 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
+        <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
+        <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
+        <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1">
+      <c r="H7" s="10"/>
+      <c r="I7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -12146,7 +13731,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -12169,13 +13754,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -13164,1228 +14773,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <f>Totals!B1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>Totals!B2</f>
-        <v>Jacob Felten</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>Totals!D2</f>
-        <v>Jeff Walters</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>Totals!F2</f>
-        <v>Gino Betetta</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>Totals!H2</f>
-        <v>Dane Woods</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="str">
-        <f>B4</f>
-        <v/>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
-        <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
-        <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="str">
-        <f>H4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="1">B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E9" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="3">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -73,9 +73,6 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Enter the total hours worked both in class and outside of class</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week 4</t>
@@ -161,10 +161,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -452,16 +452,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -706,11 +706,11 @@
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -747,7 +747,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -784,7 +784,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -821,7 +821,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -858,7 +858,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1881,7 +1881,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -2119,7 +2119,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -2145,7 +2145,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -3162,7 +3162,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -3400,7 +3400,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -3426,7 +3426,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -4443,7 +4443,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4497,28 +4497,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4530,28 +4530,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4563,28 +4563,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4596,28 +4596,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4629,28 +4629,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4660,30 +4660,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4693,30 +4693,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4727,7 +4727,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5744,7 +5744,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5800,28 +5800,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5833,28 +5833,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5866,28 +5866,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5899,28 +5899,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5932,28 +5932,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5963,30 +5963,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5996,30 +5996,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -6030,7 +6030,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -7047,7 +7047,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -7103,28 +7103,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>6.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -7136,28 +7136,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -7169,28 +7169,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>3.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>4.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>5.0</v>
       </c>
       <c r="I6" s="1">
@@ -7202,28 +7202,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -7235,28 +7235,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -7266,30 +7266,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -7299,30 +7299,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>3.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>2.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -7333,7 +7333,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8350,7 +8350,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8406,28 +8406,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -8439,28 +8439,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>6.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>4.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>8.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>5.0</v>
       </c>
       <c r="I5" s="1">
@@ -8472,28 +8472,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>7.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="5">
@@ -8505,28 +8505,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -8538,28 +8538,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>3.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -8569,30 +8569,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -8602,30 +8602,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>2.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -8636,7 +8636,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9653,7 +9653,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9709,28 +9709,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -9742,28 +9742,28 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>5.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -9775,28 +9775,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>9.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>5.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -9808,28 +9808,28 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>4.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -9841,28 +9841,28 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>2.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>8.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -9872,7 +9872,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>0.0</v>
@@ -9881,21 +9881,23 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>4.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>3.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9903,7 +9905,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>0.0</v>
@@ -9912,21 +9914,23 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="6">
+        <v>0.0</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9935,7 +9939,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -10954,7 +10958,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11027,10 +11031,12 @@
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="str">
+      <c r="H4" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -11052,10 +11058,12 @@
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6">
+        <v>0.0</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -11080,7 +11088,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -11122,7 +11130,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -11164,12 +11172,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -11189,12 +11197,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -11214,13 +11222,13 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -12237,7 +12245,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -12450,7 +12458,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -12475,7 +12483,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -12501,7 +12509,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -13518,7 +13526,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13731,7 +13739,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -13756,7 +13764,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -13782,7 +13790,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -58,13 +58,16 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Week 2</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Week 2</t>
+    <t>Wednesday</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Thursday</t>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>Enter the total hours worked both in class and outside of class</t>
-  </si>
-  <si>
-    <t>Week 3</t>
   </si>
   <si>
     <t>Week 4</t>
@@ -155,30 +155,36 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -452,16 +458,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -530,7 +536,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -567,7 +573,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -682,35 +688,35 @@
       </c>
       <c r="B9" s="1">
         <f>'Week 6'!C$10</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1">
         <f>'Week 6'!E$10</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1">
         <f>'Week 6'!G$10</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$10</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -723,7 +729,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$10</f>
@@ -731,7 +737,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F10" s="1">
         <f>'Week 7'!G$10</f>
@@ -739,7 +745,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$10</f>
@@ -747,7 +753,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -760,7 +766,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$10</f>
@@ -768,7 +774,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$10</f>
@@ -776,7 +782,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$10</f>
@@ -784,7 +790,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -797,7 +803,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$10</f>
@@ -805,7 +811,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$10</f>
@@ -813,7 +819,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$10</f>
@@ -821,7 +827,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -834,7 +840,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$10</f>
@@ -842,7 +848,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$10</f>
@@ -850,7 +856,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$10</f>
@@ -858,7 +864,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1881,7 +1887,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -1984,92 +1990,92 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="F6" s="11"/>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9">
+      <c r="H6" s="11"/>
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="F7" s="11"/>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9">
+      <c r="H7" s="12"/>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -2094,7 +2100,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -2119,7 +2125,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -2145,7 +2151,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -3162,7 +3168,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3241,7 +3247,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -3265,92 +3271,92 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="F6" s="11"/>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9">
+      <c r="H6" s="11"/>
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="F7" s="11"/>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9">
+      <c r="H7" s="12"/>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -3375,7 +3381,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -3400,7 +3406,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -3426,7 +3432,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -4443,7 +4449,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4497,28 +4503,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4528,30 +4534,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4563,28 +4569,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4594,30 +4600,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4627,30 +4633,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4660,30 +4666,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4693,30 +4699,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4727,7 +4733,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5744,7 +5750,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5800,28 +5806,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5831,30 +5837,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5866,28 +5872,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5897,30 +5903,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5930,30 +5936,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5963,30 +5969,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -5996,30 +6002,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -6030,7 +6036,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -7047,7 +7053,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -7103,28 +7109,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>6.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -7134,30 +7140,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -7169,28 +7175,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>4.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>5.0</v>
       </c>
       <c r="I6" s="1">
@@ -7200,30 +7206,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -7233,30 +7239,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -7266,30 +7272,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -7299,30 +7305,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -7333,7 +7339,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8350,7 +8356,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8406,28 +8412,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -8437,30 +8443,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>6.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>8.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>11</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>5.0</v>
       </c>
       <c r="I5" s="1">
@@ -8472,28 +8478,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>7.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="5">
@@ -8503,30 +8509,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -8536,30 +8542,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -8569,30 +8575,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -8602,30 +8608,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -8636,7 +8642,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9653,7 +9659,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9709,28 +9715,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -9740,30 +9746,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>5.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -9775,28 +9781,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>9.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>5.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -9806,30 +9812,30 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>4.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -9839,30 +9845,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>2.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>8.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -9872,30 +9878,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -9905,30 +9911,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -9939,7 +9945,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -10958,7 +10964,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11014,24 +11020,28 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
         <v>4.0</v>
       </c>
       <c r="I4" s="1">
@@ -11041,194 +11051,234 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.0</v>
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="B6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.0</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.0</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -12245,7 +12295,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -12324,7 +12374,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -12348,92 +12398,92 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="F6" s="11"/>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9">
+      <c r="H6" s="11"/>
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="F7" s="11"/>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9">
+      <c r="H7" s="12"/>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -12458,7 +12508,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -12483,7 +12533,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -12509,7 +12559,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -13526,7 +13576,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13605,7 +13655,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -13629,92 +13679,92 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="F6" s="11"/>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9">
+      <c r="H6" s="11"/>
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="F7" s="11"/>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9">
+      <c r="H7" s="12"/>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -13739,7 +13789,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -13764,7 +13814,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -13790,7 +13840,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -37,6 +37,15 @@
     <t>Jacob Felten</t>
   </si>
   <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
     <t>Jeff Walters</t>
   </si>
   <si>
@@ -46,28 +55,16 @@
     <t>Dane Woods</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
-    <t>Monday</t>
+    <t>Tuesday</t>
   </si>
   <si>
     <t>Week 2</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
     <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Week 3</t>
   </si>
   <si>
     <t>Thursday</t>
@@ -76,16 +73,19 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
+    <t>Week 4</t>
   </si>
   <si>
-    <t>Week 4</t>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
     <t>Week 5</t>
@@ -161,15 +161,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -179,9 +182,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -458,48 +458,48 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
@@ -536,7 +536,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -573,7 +573,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -610,7 +610,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$10</f>
@@ -704,11 +704,11 @@
       </c>
       <c r="F9" s="1">
         <f>'Week 6'!G$10</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H9" s="1">
         <f>'Week 6'!I$10</f>
@@ -725,11 +725,11 @@
       </c>
       <c r="B10" s="1">
         <f>'Week 7'!C$10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$10</f>
@@ -745,7 +745,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$10</f>
@@ -766,7 +766,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$10</f>
@@ -782,7 +782,7 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$10</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$10</f>
@@ -819,7 +819,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$10</f>
@@ -840,7 +840,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$10</f>
@@ -856,7 +856,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$10</f>
@@ -1887,7 +1887,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1915,33 +1915,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
@@ -1966,7 +1966,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -1994,22 +1994,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2033,25 +2033,25 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -2151,7 +2151,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -3168,7 +3168,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3196,33 +3196,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
@@ -3247,7 +3247,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -3275,22 +3275,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3314,25 +3314,25 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -3432,7 +3432,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -4449,7 +4449,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4463,68 +4463,68 @@
         <v>Jacob Felten</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Totals!F2</f>
         <v>Gino Betetta</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4534,30 +4534,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4569,28 +4569,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4600,30 +4600,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4633,30 +4633,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4668,28 +4668,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4701,28 +4701,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4733,7 +4733,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5750,7 +5750,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5778,56 +5778,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5837,30 +5837,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5872,28 +5872,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5903,30 +5903,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5936,30 +5936,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5971,28 +5971,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -6004,28 +6004,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -6036,7 +6036,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -7053,7 +7053,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -7081,56 +7081,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>6.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -7140,30 +7140,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -7175,28 +7175,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>3.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>4.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>5.0</v>
       </c>
       <c r="I6" s="1">
@@ -7206,30 +7206,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -7239,30 +7239,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -7274,28 +7274,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -7307,28 +7307,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>3.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>2.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -7339,7 +7339,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8356,7 +8356,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8384,56 +8384,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -8443,30 +8443,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>6.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>4.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>8.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>5.0</v>
       </c>
       <c r="I5" s="1">
@@ -8478,28 +8478,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>7.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="5">
@@ -8509,30 +8509,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -8542,30 +8542,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>3.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -8577,28 +8577,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -8610,28 +8610,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>2.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -8642,7 +8642,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9659,7 +9659,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9687,56 +9687,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -9746,30 +9746,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>5.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -9781,28 +9781,28 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>9.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>5.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -9812,30 +9812,30 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>4.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -9845,30 +9845,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>2.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>8.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -9880,28 +9880,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>4.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>3.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -9913,28 +9913,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -9945,7 +9945,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -10964,7 +10964,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -10992,56 +10992,56 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>4.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>4.0</v>
       </c>
       <c r="I4" s="1">
@@ -11051,30 +11051,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>2.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -11086,31 +11086,31 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3.0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>2.0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>3.0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>2.0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -11134,33 +11134,33 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>3.0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>2.0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>2.0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>4.0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -11184,28 +11184,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>6.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -11217,26 +11219,28 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="4">
+        <v>2.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H9" s="3">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -11248,26 +11252,28 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H10" s="3">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4">
         <v>4.0</v>
       </c>
       <c r="I10" s="1">
@@ -11278,7 +11284,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -12295,7 +12301,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -12323,38 +12329,40 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="str">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="1">
         <f>B4</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
@@ -12374,12 +12382,12 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -12402,22 +12410,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12441,25 +12449,25 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12483,12 +12491,12 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
@@ -12513,7 +12521,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
@@ -12538,7 +12546,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
@@ -12559,7 +12567,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -13576,7 +13584,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13604,33 +13612,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
@@ -13655,7 +13663,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -13683,22 +13691,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13722,25 +13730,25 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13764,7 +13772,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -13840,7 +13848,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -37,15 +37,6 @@
     <t>Jacob Felten</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>Jeff Walters</t>
   </si>
   <si>
@@ -55,16 +46,25 @@
     <t>Dane Woods</t>
   </si>
   <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>Week 2</t>
+    <t>Wednesday</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Thursday</t>
@@ -73,19 +73,19 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Week 4</t>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week 5</t>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -168,11 +176,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -180,9 +188,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -462,44 +474,44 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
@@ -536,7 +548,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -573,7 +585,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -610,7 +622,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$10</f>
@@ -725,35 +737,35 @@
       </c>
       <c r="B10" s="1">
         <f>'Week 7'!C$10</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1">
         <f>'Week 7'!G$10</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H10" s="1">
         <f>'Week 7'!I$10</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -762,35 +774,35 @@
       </c>
       <c r="B11" s="1">
         <f>'Week 8'!C$10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$10</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$10</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -803,7 +815,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$10</f>
@@ -811,7 +823,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$10</f>
@@ -819,7 +831,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$10</f>
@@ -827,7 +839,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -840,7 +852,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$10</f>
@@ -848,7 +860,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$10</f>
@@ -856,7 +868,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$10</f>
@@ -864,7 +876,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1915,33 +1927,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
@@ -1990,88 +2002,88 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -2100,7 +2112,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -2125,7 +2137,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -2151,7 +2163,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -3196,33 +3208,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
@@ -3271,88 +3283,88 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -3381,7 +3393,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -3406,7 +3418,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -3432,7 +3444,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -4463,45 +4475,45 @@
         <v>Jacob Felten</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>Totals!F2</f>
         <v>Gino Betetta</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>2.0</v>
@@ -4567,7 +4579,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>2.0</v>
@@ -4666,7 +4678,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.0</v>
@@ -4699,7 +4711,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.0</v>
@@ -4733,7 +4745,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5778,33 +5790,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>3.0</v>
@@ -5870,7 +5882,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>2.0</v>
@@ -5969,7 +5981,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.0</v>
@@ -6002,7 +6014,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.0</v>
@@ -6036,7 +6048,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -7081,33 +7093,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>6.0</v>
@@ -7173,7 +7185,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>3.0</v>
@@ -7272,7 +7284,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.0</v>
@@ -7305,7 +7317,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.0</v>
@@ -7339,7 +7351,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8384,33 +8396,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>2.0</v>
@@ -8476,7 +8488,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>3.0</v>
@@ -8575,7 +8587,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.0</v>
@@ -8608,7 +8620,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.0</v>
@@ -8642,7 +8654,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9687,33 +9699,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>4.0</v>
@@ -9779,7 +9791,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>3.0</v>
@@ -9878,7 +9890,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.0</v>
@@ -9911,7 +9923,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.0</v>
@@ -9945,7 +9957,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -10992,33 +11004,33 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>4.0</v>
@@ -11083,8 +11095,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>3.0</v>
@@ -11114,26 +11126,26 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4">
@@ -11157,30 +11169,30 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>4.0</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -11217,7 +11229,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0.0</v>
@@ -11250,7 +11262,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>0.0</v>
@@ -11284,7 +11296,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -12329,245 +12341,299 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4">
+        <v>6.0</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.0</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.0</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4.0</v>
+      </c>
       <c r="C6" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4.0</v>
+      </c>
       <c r="G6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.0</v>
+      </c>
       <c r="I6" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="9">
+        <v>4.0</v>
+      </c>
       <c r="C7" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3.0</v>
+      </c>
       <c r="E7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.0</v>
+      </c>
       <c r="I7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4">
+        <v>0.0</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.0</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.0</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.0</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -13612,163 +13678,195 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="str">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="1">
         <f>B4</f>
-        <v/>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4">
+        <v>3.0</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.0</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.0</v>
+      </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>0</v>
+        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4.0</v>
+      </c>
       <c r="C6" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.0</v>
+      </c>
       <c r="G6" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.0</v>
+      </c>
       <c r="I6" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10">
+        <v>3.0</v>
+      </c>
       <c r="C7" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.0</v>
+      </c>
       <c r="E7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.0</v>
+      </c>
       <c r="I7" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -13777,78 +13875,77 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>9</v>
+      </c>
       <c r="I10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>H9+I9</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -55,31 +55,7 @@
     <t>Week 1</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
     <t>Week 2</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
     <t>Week 3</t>
@@ -111,12 +87,36 @@
   <si>
     <t>Enter your hours on the weekly sheets.</t>
   </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Enter the total hours worked both in class and outside of class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -140,14 +140,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,20 +155,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -188,13 +177,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -470,16 +458,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -548,7 +536,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$10</f>
@@ -585,7 +573,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$10</f>
@@ -622,7 +610,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <f>'Week 4'!C$10</f>
@@ -659,7 +647,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <f>'Week 5'!C$10</f>
@@ -696,7 +684,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <f>'Week 6'!C$10</f>
@@ -733,7 +721,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <f>'Week 7'!C$10</f>
@@ -770,7 +758,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <f>'Week 8'!C$10</f>
@@ -798,24 +786,24 @@
       </c>
       <c r="H11" s="1">
         <f>'Week 8'!I$10</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <f>'Week 9'!C$10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$10</f>
@@ -839,12 +827,12 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <f>'Week 10'!C$10</f>
@@ -852,7 +840,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$10</f>
@@ -876,18 +864,18 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -1899,7 +1887,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -1953,12 +1941,14 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="1">
         <f>B4</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
@@ -1978,12 +1968,12 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -2002,97 +1992,97 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="8">
+      <c r="F6" s="11"/>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="8">
+      <c r="H6" s="11"/>
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="8">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="8">
+      <c r="F7" s="11"/>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="8">
+      <c r="H7" s="12"/>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
@@ -2112,12 +2102,12 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
@@ -2137,12 +2127,12 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
@@ -2163,7 +2153,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -3180,7 +3170,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -3234,7 +3224,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="str">
@@ -3259,7 +3249,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -3283,92 +3273,92 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="8">
+      <c r="F6" s="11"/>
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="8">
+      <c r="H6" s="11"/>
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="8">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="8">
+      <c r="F7" s="11"/>
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="8">
+      <c r="H7" s="12"/>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -3393,7 +3383,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -3418,7 +3408,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -3444,7 +3434,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -4461,7 +4451,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -4513,30 +4503,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -4546,30 +4536,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -4579,30 +4569,30 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="1">
@@ -4612,30 +4602,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4645,30 +4635,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2.0</v>
       </c>
       <c r="I8" s="1">
@@ -4678,30 +4668,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -4711,30 +4701,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -4745,7 +4735,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5762,7 +5752,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -5816,30 +5806,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -5849,30 +5839,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>3.0</v>
       </c>
       <c r="I5" s="1">
@@ -5882,30 +5872,30 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -5915,30 +5905,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -5948,30 +5938,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -5981,30 +5971,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -6014,30 +6004,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -6048,7 +6038,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -7065,7 +7055,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -7119,30 +7109,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>6.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -7152,30 +7142,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -7185,30 +7175,30 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>4.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>5.0</v>
       </c>
       <c r="I6" s="1">
@@ -7218,30 +7208,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -7251,30 +7241,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -7284,30 +7274,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -7317,30 +7307,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -7351,7 +7341,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8368,7 +8358,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -8422,30 +8412,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3.0</v>
       </c>
       <c r="I4" s="1">
@@ -8455,30 +8445,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>6.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>8.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>11</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>5.0</v>
       </c>
       <c r="I5" s="1">
@@ -8488,30 +8478,30 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>7.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>3.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="5">
@@ -8521,30 +8511,30 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
         <v>2.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -8554,30 +8544,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -8587,30 +8577,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -8620,30 +8610,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2.0</v>
       </c>
       <c r="I10" s="1">
@@ -8654,7 +8644,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9671,7 +9661,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -9725,30 +9715,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -9758,30 +9748,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>5.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -9791,30 +9781,30 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>9.0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>5.0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="1">
@@ -9824,30 +9814,30 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4.0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>4.0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -9857,30 +9847,30 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>2.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>8.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -9890,30 +9880,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -9923,30 +9913,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -9957,7 +9947,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -10976,7 +10966,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -11030,30 +11020,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>4.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>4.0</v>
       </c>
       <c r="I4" s="1">
@@ -11063,30 +11053,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>2.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -11095,131 +11085,131 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2.0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>3.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2.0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>2.0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>4.0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>6.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -11229,30 +11219,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>2.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -11262,30 +11252,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>4.0</v>
       </c>
       <c r="I10" s="1">
@@ -11296,7 +11286,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -12313,7 +12303,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -12367,30 +12357,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.0</v>
       </c>
       <c r="I4" s="1">
@@ -12400,30 +12390,30 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>6.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
@@ -12432,131 +12422,131 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
         <v>4.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>2.0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>4.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2.0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8">
         <v>4.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>3.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>2.0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>2.0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>0.0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
@@ -12566,30 +12556,30 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
         <v>1.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>2.0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>3.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
@@ -12599,30 +12589,30 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>1.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
@@ -12633,7 +12623,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -13650,7 +13640,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="4" t="str">
         <f>Totals!B1</f>
         <v/>
       </c>
@@ -13704,30 +13694,30 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>2.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>3.0</v>
       </c>
       <c r="G4" s="1">
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>4.0</v>
       </c>
       <c r="I4" s="1">
@@ -13737,142 +13727,144 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
         <v>3.0</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>3.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I9" si="4">H5+I4</f>
+        <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
         <v>4.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>2.0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>2.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2.0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8">
         <v>3.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>2.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>2.0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>2.0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -13887,7 +13879,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -13895,9 +13889,11 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -13907,22 +13903,26 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="3">
+        <v>3.0</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -13937,15 +13937,18 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
+      <c r="H10" s="5">
+        <v>3.0</v>
+      </c>
       <c r="I10" s="1">
-        <f>H9+I9</f>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -140,6 +140,10 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -182,6 +186,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -770,11 +777,11 @@
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$10</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$10</f>
@@ -799,19 +806,19 @@
       </c>
       <c r="B12" s="1">
         <f>'Week 9'!C$10</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$10</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$10</f>
@@ -823,11 +830,11 @@
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -840,7 +847,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$10</f>
@@ -848,7 +855,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$10</f>
@@ -864,7 +871,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1943,77 +1950,91 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="str">
+      <c r="H4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3">
+        <v>3.0</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="10">
+        <v>9.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="8">
+        <v>3.0</v>
+      </c>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2037,25 +2058,29 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>2.0</v>
+      </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2.0</v>
+      </c>
       <c r="E7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2082,12 +2107,14 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -2097,7 +2124,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2107,12 +2134,12 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -2122,7 +2149,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2132,12 +2159,12 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -2147,7 +2174,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -3276,22 +3303,22 @@
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3318,22 +3345,22 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13862,17 +13889,19 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="10">
+        <v>3.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -13891,17 +13920,19 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="10">
+        <v>4.0</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1">
@@ -13920,17 +13951,19 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="10">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -140,6 +140,10 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -182,6 +186,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -770,11 +777,11 @@
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$10</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$10</f>
@@ -799,35 +806,35 @@
       </c>
       <c r="B12" s="1">
         <f>'Week 9'!C$10</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$10</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$10</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -840,7 +847,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$10</f>
@@ -848,7 +855,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$10</f>
@@ -856,7 +863,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$10</f>
@@ -864,7 +871,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1943,80 +1950,101 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="str">
+      <c r="D4" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3">
+        <v>3.0</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2.0</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="8">
+        <v>3.0</v>
+      </c>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4.0</v>
+      </c>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2.0</v>
+      </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -2037,28 +2065,35 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="E7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.0</v>
+      </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -2082,22 +2117,28 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4.0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2107,22 +2148,24 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2132,22 +2175,24 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -3276,22 +3321,22 @@
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3318,22 +3363,22 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13862,17 +13907,19 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="3">
         <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3">
+        <v>3.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -13891,17 +13938,19 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="3">
         <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3">
+        <v>4.0</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1">
@@ -13920,17 +13969,19 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="3">
         <v>0.0</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -822,19 +822,19 @@
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$10</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$10</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -863,7 +863,7 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$10</f>
@@ -871,7 +871,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1957,17 +1957,19 @@
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="3">
         <v>7.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>7</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
+      <c r="F4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="1">
         <f>F4</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
         <v>2.0</v>
@@ -1988,17 +1990,19 @@
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>7</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="3">
         <v>9.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>16</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="10">
+        <v>2.0</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3">
         <v>2.0</v>
@@ -2019,25 +2023,28 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>2.0</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11">
+        <v>4.0</v>
+      </c>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2.0</v>
+      </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -2058,32 +2065,35 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>2.0</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>2.0</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.0</v>
+      </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -2109,22 +2119,26 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="3">
         <v>2.0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="10">
+        <v>4.0</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2141,15 +2155,17 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="10">
+        <v>0.0</v>
+      </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2166,15 +2182,17 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="10">
+        <v>1.0</v>
+      </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -13896,7 +13914,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="3">
         <v>3.0</v>
       </c>
       <c r="E8" s="1">
@@ -13927,7 +13945,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="3">
         <v>4.0</v>
       </c>
       <c r="E9" s="1">
@@ -13958,7 +13976,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="3">
         <v>0.0</v>
       </c>
       <c r="E10" s="1">

--- a/Docs/CS297_TimeTracking.xlsx
+++ b/Docs/CS297_TimeTracking.xlsx
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -140,10 +140,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -186,9 +182,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -830,11 +823,11 @@
       </c>
       <c r="H12" s="1">
         <f>'Week 9'!I$10</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -843,11 +836,11 @@
       </c>
       <c r="B13" s="1">
         <f>'Week 10'!C$10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$10</f>
@@ -867,11 +860,11 @@
       </c>
       <c r="H13" s="1">
         <f>'Week 10'!I$10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1964,7 +1957,7 @@
         <f>D4</f>
         <v>7</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="3">
         <v>4.0</v>
       </c>
       <c r="G4" s="1">
@@ -1997,7 +1990,7 @@
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>16</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="3">
         <v>2.0</v>
       </c>
       <c r="G5" s="1">
@@ -2030,7 +2023,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>4.0</v>
       </c>
       <c r="G6" s="7">
@@ -2079,7 +2072,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>2.0</v>
       </c>
       <c r="G7" s="7">
@@ -2114,7 +2107,9 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2126,7 +2121,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
       <c r="G8" s="1">
@@ -2145,7 +2140,9 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2155,14 +2152,16 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2172,7 +2171,9 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="10">
+        <v>0.0</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2182,17 +2183,19 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="3">
         <v>1.0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3">
+        <v>3.0</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -3271,10 +3274,12 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="str">
+      <c r="B4" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="1">
         <f>B4</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="str">
@@ -3286,20 +3291,24 @@
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="str">
+      <c r="H4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="10">
+        <v>1.0</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -3314,32 +3323,32 @@
       <c r="H5" s="2"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -3363,25 +3372,25 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -3408,7 +3417,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
@@ -3423,7 +3432,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -3433,7 +3442,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
@@ -3448,7 +3457,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -3458,7 +3467,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
@@ -3473,7 +3482,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
